--- a/3. Bears_and_Bugs.jar_Metrics/Bears_Basic_42_Avg.xlsx
+++ b/3. Bears_and_Bugs.jar_Metrics/Bears_Basic_42_Avg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UROS\Desktop\VM Shared Folder\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UROS\Documents\GitHub\APR-PQA\3. Bears_and_Bugs.jar_Metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -578,60 +578,21 @@
     <t>NbMethodsCallingMe</t>
   </si>
   <si>
-    <t>Arja-Bears-SzFMV2018-Tavasz-AutomatedCar -351742666-351759763_2_Repaired</t>
-  </si>
-  <si>
-    <t>GenProg-Bears-SzFMV2018-Tavasz-Automated Car-351742666-351759763_0_Fixed</t>
-  </si>
-  <si>
     <t>RSRepair-Bears-SzFMV2018-Tavasz-Automate dCar-351742666-351759763_2_Buggy</t>
   </si>
   <si>
     <t>Nopol-Bears-vkostyukov-la4j-414793864-43 6911083_0_Buggy</t>
   </si>
   <si>
-    <t>Arja-Bears-opentracing-contrib-java-p6sp y-390188323-431527545_4_Fixed</t>
-  </si>
-  <si>
     <t>GenProg-Bears-SzFMV2018-Tavasz-Automated Car-351742666-351759763_0_Buggy</t>
   </si>
   <si>
-    <t>Nopol-Bears-vkostyukov-la4j-414793864-43 6911083_0_Repaired</t>
-  </si>
-  <si>
-    <t>Arja-Bears-albfernandez-GDS-PMD-Security -Rules-451155169-455669767_4_Repaired</t>
-  </si>
-  <si>
-    <t>Arja-Bears-SzFMV2018-Tavasz-AutomatedCar -351742666-351759763_0_Fixed</t>
-  </si>
-  <si>
     <t>GenProg-Bears-SzFMV2018-Tavasz-Automated Car-351742666-351759763_2_Buggy</t>
   </si>
   <si>
-    <t>Arja-Bears-albfernandez-GDS-PMD-Security -Rules-451155169-455669767_1_Repaired</t>
-  </si>
-  <si>
     <t>Arja-Bears-albfernandez-GDS-PMD-Security -Rules-451155169-455669767_1_Buggy</t>
   </si>
   <si>
-    <t>Arja-Bears-traccar-traccar-255051210-255 052458_0_Fixed</t>
-  </si>
-  <si>
-    <t>Kali-Bears-albfernandez-GDS-PMD-Security -Rules-451155169-455669767_0_Fixed</t>
-  </si>
-  <si>
-    <t>GenProg-Bears-SzFMV2018-Tavasz-Automated Car-351742666-351759763_3_Fixed</t>
-  </si>
-  <si>
-    <t>Arja-Bears-julianps-modelmapper-module-v avr-441307573-461240331_2_Repaired</t>
-  </si>
-  <si>
-    <t>Arja-Bears-traccar-traccar-255051210-255 052458_1_Fixed</t>
-  </si>
-  <si>
-    <t>Arja-Bears-julianps-modelmapper-module-v avr-441307573-461240331_3_Fixed</t>
-  </si>
-  <si>
     <t>Kali-Bears-dungba88-libra-436514153-4365 24727_0_Buggy</t>
   </si>
   <si>
@@ -641,51 +602,21 @@
     <t>Kali-Bears-SzFMV2018-Tavasz-AutomatedCar -351742666-351759763_0_Buggy</t>
   </si>
   <si>
-    <t>Kali-Bears-julianps-modelmapper-module-v avr-441307573-461240331_0_Repaired</t>
-  </si>
-  <si>
-    <t>Arja-Bears-albfernandez-GDS-PMD-Security -Rules-451155169-455669767_0_Fixed</t>
-  </si>
-  <si>
-    <t>Arja-Bears-opentracing-contrib-java-p6sp y-390188323-431527545_2_Repaired</t>
-  </si>
-  <si>
-    <t>Arja-Bears-opentracing-contrib-java-p6sp y-390188323-431527545_1_Repaired</t>
-  </si>
-  <si>
     <t>Arja-Bears-traccar-traccar-255051210-255 052458_2_Buggy</t>
   </si>
   <si>
-    <t>Arja-Bears-julianps-modelmapper-module-v avr-441307573-461240331_4_Fixed</t>
-  </si>
-  <si>
-    <t>Arja-Bears-albfernandez-GDS-PMD-Security -Rules-451155169-455669767_2_Repaired</t>
-  </si>
-  <si>
     <t>Arja-Bears-albfernandez-GDS-PMD-Security -Rules-451155169-455669767_4_Buggy</t>
   </si>
   <si>
     <t>Arja-Bears-opentracing-contrib-java-p6sp y-390188323-431527545_2_Buggy</t>
   </si>
   <si>
-    <t>Arja-Bears-SzFMV2018-Tavasz-AutomatedCar -351742666-351759763_4_Fixed</t>
-  </si>
-  <si>
-    <t>GenProg-Bears-SzFMV2018-Tavasz-Automated Car-351742666-351759763_2_Fixed</t>
-  </si>
-  <si>
-    <t>Arja-Bears-dungba88-libra-436514153-4365 24727_1_Fixed</t>
-  </si>
-  <si>
     <t>Arja-Bears-opentracing-contrib-java-p6sp y-390188323-431527545_0_Buggy</t>
   </si>
   <si>
     <t>Arja-Bears-traccar-traccar-255051210-255 052458_4_Buggy</t>
   </si>
   <si>
-    <t>Arja-Bears-opentracing-contrib-java-p6sp y-390188323-431527545_2_Fixed</t>
-  </si>
-  <si>
     <t>GenProg-Bears-SzFMV2018-Tavasz-Automated Car-351742666-351759763_4_Buggy</t>
   </si>
   <si>
@@ -695,255 +626,72 @@
     <t>RSRepair-Bears-SzFMV2018-Tavasz-Automate dCar-351742666-351759763_1_Buggy</t>
   </si>
   <si>
-    <t>Arja-Bears-traccar-traccar-255051210-255 052458_1_Repaired</t>
-  </si>
-  <si>
-    <t>Arja-Bears-SzFMV2018-Tavasz-AutomatedCar -351742666-351759763_0_Repaired</t>
-  </si>
-  <si>
     <t>Arja-Bears-julianps-modelmapper-module-v avr-441307573-461240331_1_Buggy</t>
   </si>
   <si>
-    <t>Arja-Bears-SzFMV2018-Tavasz-AutomatedCar -351742666-351759763_2_Fixed</t>
-  </si>
-  <si>
-    <t>GenProg-Bears-SzFMV2018-Tavasz-Automated Car-351742666-351759763_0_Repaired</t>
-  </si>
-  <si>
-    <t>Arja-Bears-dungba88-libra-436514153-4365 24727_0_Fixed</t>
-  </si>
-  <si>
     <t>Arja-Bears-julianps-modelmapper-module-v avr-441307573-461240331_4_Buggy</t>
   </si>
   <si>
-    <t>RSRepair-Bears-SzFMV2018-Tavasz-Automate dCar-351742666-351759763_4_Fixed</t>
-  </si>
-  <si>
-    <t>Kali-Bears-SzFMV2018-Tavasz-AutomatedCar -351742666-351759763_0_Repaired</t>
-  </si>
-  <si>
-    <t>RSRepair-Bears-SzFMV2018-Tavasz-Automate dCar-351742666-351759763_1_Fixed</t>
-  </si>
-  <si>
-    <t>Arja-Bears-opentracing-contrib-java-p6sp y-390188323-431527545_1_Fixed</t>
-  </si>
-  <si>
     <t>Arja-Bears-julianps-modelmapper-module-v avr-441307573-461240331_2_Buggy</t>
   </si>
   <si>
-    <t>Arja-Bears-traccar-traccar-255051210-255 052458_3_Repaired</t>
-  </si>
-  <si>
     <t>Arja-Bears-traccar-traccar-255051210-255 052458_1_Buggy</t>
   </si>
   <si>
-    <t>Arja-Bears-traccar-traccar-255051210-255 052458_0_Repaired</t>
-  </si>
-  <si>
-    <t>Arja-Bears-julianps-modelmapper-module-v avr-441307573-461240331_0_Repaired</t>
-  </si>
-  <si>
     <t>RSRepair-Bears-SzFMV2018-Tavasz-Automate dCar-351742666-351759763_4_Buggy</t>
   </si>
   <si>
     <t>Arja-Bears-julianps-modelmapper-module-v avr-441307573-461240331_0_Buggy</t>
   </si>
   <si>
-    <t>Arja-Bears-albfernandez-GDS-PMD-Security -Rules-451155169-455669767_2_Fixed</t>
-  </si>
-  <si>
-    <t>RSRepair-Bears-SzFMV2018-Tavasz-Automate dCar-351742666-351759763_0_Repaired</t>
-  </si>
-  <si>
-    <t>Arja-Bears-traccar-traccar-255051210-255 052458_2_Repaired</t>
-  </si>
-  <si>
-    <t>Nopol-Bears-vkostyukov-la4j-414793864-43 6911083_0_Fixed</t>
-  </si>
-  <si>
     <t>Arja-Bears-opentracing-contrib-java-p6sp y-390188323-431527545_1_Buggy</t>
   </si>
   <si>
     <t>Kali-Bears-traccar-traccar-255051210-255 052458_0_Buggy</t>
   </si>
   <si>
-    <t>GenProg-Bears-SzFMV2018-Tavasz-Automated Car-351742666-351759763_3_Repaired</t>
-  </si>
-  <si>
-    <t>RSRepair-Bears-SzFMV2018-Tavasz-Automate dCar-351742666-351759763_3_Repaired</t>
-  </si>
-  <si>
-    <t>Arja-Bears-julianps-modelmapper-module-v avr-441307573-461240331_1_Repaired</t>
-  </si>
-  <si>
-    <t>Arja-Bears-opentracing-contrib-java-p6sp y-390188323-431527545_0_Repaired</t>
-  </si>
-  <si>
-    <t>GenProg-Bears-SzFMV2018-Tavasz-Automated Car-351742666-351759763_4_Repaired</t>
-  </si>
-  <si>
     <t>GenProg-Bears-SzFMV2018-Tavasz-Automated Car-351742666-351759763_1_Buggy</t>
   </si>
   <si>
-    <t>RSRepair-Bears-SzFMV2018-Tavasz-Automate dCar-351742666-351759763_3_Fixed</t>
-  </si>
-  <si>
-    <t>Arja-Bears-julianps-modelmapper-module-v avr-441307573-461240331_1_Fixed</t>
-  </si>
-  <si>
-    <t>Arja-Bears-SzFMV2018-Tavasz-AutomatedCar -351742666-351759763_3_Fixed</t>
-  </si>
-  <si>
-    <t>Kali-Bears-traccar-traccar-255051210-255 052458_0_Repaired</t>
-  </si>
-  <si>
     <t>Arja-Bears-albfernandez-GDS-PMD-Security -Rules-451155169-455669767_2_Buggy</t>
   </si>
   <si>
     <t>Arja-Bears-SzFMV2018-Tavasz-AutomatedCar -351742666-351759763_0_Buggy</t>
   </si>
   <si>
-    <t>Kali-Bears-albfernandez-GDS-PMD-Security -Rules-451155169-455669767_0_Repaired</t>
-  </si>
-  <si>
     <t>Arja-Bears-traccar-traccar-255051210-255 052458_3_Buggy</t>
   </si>
   <si>
     <t>Arja-Bears-traccar-traccar-255051210-255 052458_0_Buggy</t>
   </si>
   <si>
-    <t>GenProg-Bears-SzFMV2018-Tavasz-Automated Car-351742666-351759763_1_Fixed</t>
-  </si>
-  <si>
-    <t>RSRepair-Bears-SzFMV2018-Tavasz-Automate dCar-351742666-351759763_1_Repaired</t>
-  </si>
-  <si>
     <t>Arja-Bears-SzFMV2018-Tavasz-AutomatedCar -351742666-351759763_4_Buggy</t>
   </si>
   <si>
-    <t>Arja-Bears-traccar-traccar-255051210-255 052458_4_Repaired</t>
-  </si>
-  <si>
     <t>Arja-Bears-dungba88-libra-436514153-4365 24727_1_Buggy</t>
   </si>
   <si>
-    <t>Arja-Bears-SzFMV2018-Tavasz-AutomatedCar -351742666-351759763_4_Repaired</t>
-  </si>
-  <si>
-    <t>Arja-Bears-SzFMV2018-Tavasz-AutomatedCar -351742666-351759763_3_Repaired</t>
-  </si>
-  <si>
     <t>Kali-Bears-albfernandez-GDS-PMD-Security -Rules-451155169-455669767_0_Buggy</t>
   </si>
   <si>
-    <t>Arja-Bears-albfernandez-GDS-PMD-Security -Rules-451155169-455669767_4_Fixed</t>
-  </si>
-  <si>
-    <t>Kali-Bears-dungba88-libra-436514153-4365 24727_0_Repaired</t>
-  </si>
-  <si>
-    <t>Arja-Bears-julianps-modelmapper-module-v avr-441307573-461240331_0_Fixed</t>
-  </si>
-  <si>
     <t>RSRepair-Bears-SzFMV2018-Tavasz-Automate dCar-351742666-351759763_0_Buggy</t>
   </si>
   <si>
-    <t>Kali-Bears-dungba88-libra-436514153-4365 24727_0_Fixed</t>
-  </si>
-  <si>
-    <t>RSRepair-Bears-SzFMV2018-Tavasz-Automate dCar-351742666-351759763_0_Fixed</t>
-  </si>
-  <si>
-    <t>Arja-Bears-traccar-traccar-255051210-255 052458_2_Fixed</t>
-  </si>
-  <si>
-    <t>Arja-Bears-julianps-modelmapper-module-v avr-441307573-461240331_2_Fixed</t>
-  </si>
-  <si>
-    <t>GenProg-Bears-SzFMV2018-Tavasz-Automated Car-351742666-351759763_1_Repaired</t>
-  </si>
-  <si>
-    <t>Arja-Bears-traccar-traccar-255051210-255 052458_3_Fixed</t>
-  </si>
-  <si>
-    <t>Arja-Bears-albfernandez-GDS-PMD-Security -Rules-451155169-455669767_0_Repaired</t>
-  </si>
-  <si>
-    <t>Arja-Bears-opentracing-contrib-java-p6sp y-390188323-431527545_0_Fixed</t>
-  </si>
-  <si>
-    <t>GenProg-Bears-SzFMV2018-Tavasz-Automated Car-351742666-351759763_4_Fixed</t>
-  </si>
-  <si>
     <t>Arja-Bears-opentracing-contrib-java-p6sp y-390188323-431527545_3_Buggy</t>
   </si>
   <si>
-    <t>Arja-Bears-julianps-modelmapper-module-v avr-441307573-461240331_4_Repaired</t>
-  </si>
-  <si>
     <t>Kali-Bears-julianps-modelmapper-module-v avr-441307573-461240331_0_Buggy</t>
   </si>
   <si>
-    <t>Arja-Bears-SzFMV2018-Tavasz-AutomatedCar -351742666-351759763_1_Repaired</t>
-  </si>
-  <si>
-    <t>Kali-Bears-traccar-traccar-255051210-255 052458_0_Fixed</t>
-  </si>
-  <si>
-    <t>RSRepair-Bears-SzFMV2018-Tavasz-Automate dCar-351742666-351759763_2_Repaired</t>
-  </si>
-  <si>
-    <t>Arja-Bears-traccar-traccar-255051210-255 052458_4_Fixed</t>
-  </si>
-  <si>
-    <t>RSRepair-Bears-SzFMV2018-Tavasz-Automate dCar-351742666-351759763_2_Fixed</t>
-  </si>
-  <si>
-    <t>Arja-Bears-opentracing-contrib-java-p6sp y-390188323-431527545_4_Repaired</t>
-  </si>
-  <si>
-    <t>Kali-Bears-julianps-modelmapper-module-v avr-441307573-461240331_0_Fixed</t>
-  </si>
-  <si>
-    <t>Arja-Bears-julianps-modelmapper-module-v avr-441307573-461240331_3_Repaired</t>
-  </si>
-  <si>
-    <t>GenProg-Bears-SzFMV2018-Tavasz-Automated Car-351742666-351759763_2_Repaired</t>
-  </si>
-  <si>
-    <t>RSRepair-Bears-SzFMV2018-Tavasz-Automate dCar-351742666-351759763_4_Repaired</t>
-  </si>
-  <si>
-    <t>Arja-Bears-opentracing-contrib-java-p6sp y-390188323-431527545_3_Fixed</t>
-  </si>
-  <si>
     <t>Arja-Bears-SzFMV2018-Tavasz-AutomatedCar -351742666-351759763_1_Buggy</t>
   </si>
   <si>
-    <t>Arja-Bears-albfernandez-GDS-PMD-Security -Rules-451155169-455669767_1_Fixed</t>
-  </si>
-  <si>
-    <t>Arja-Bears-opentracing-contrib-java-p6sp y-390188323-431527545_3_Repaired</t>
-  </si>
-  <si>
     <t>GenProg-Bears-SzFMV2018-Tavasz-Automated Car-351742666-351759763_3_Buggy</t>
   </si>
   <si>
     <t>Arja-Bears-SzFMV2018-Tavasz-AutomatedCar -351742666-351759763_3_Buggy</t>
   </si>
   <si>
-    <t>Arja-Bears-SzFMV2018-Tavasz-AutomatedCar -351742666-351759763_1_Fixed</t>
-  </si>
-  <si>
-    <t>Arja-Bears-dungba88-libra-436514153-4365 24727_1_Repaired</t>
-  </si>
-  <si>
-    <t>Arja-Bears-dungba88-libra-436514153-4365 24727_0_Repaired</t>
-  </si>
-  <si>
-    <t>Kali-Bears-SzFMV2018-Tavasz-AutomatedCar -351742666-351759763_0_Fixed</t>
-  </si>
-  <si>
     <t>Arja-Bears-albfernandez-GDS-PMD-Security -Rules-451155169-455669767_0_Buggy</t>
   </si>
   <si>
@@ -978,6 +726,258 @@
   </si>
   <si>
     <t>Version</t>
+  </si>
+  <si>
+    <t>Arja-Bears-albfernandez-GDS-PMD-Security -Rules-451155169-455669767_0_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bears-albfernandez-GDS-PMD-Security -Rules-451155169-455669767_1_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bears-albfernandez-GDS-PMD-Security -Rules-451155169-455669767_2_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bears-albfernandez-GDS-PMD-Security -Rules-451155169-455669767_4_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bears-dungba88-libra-436514153-4365 24727_0_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bears-dungba88-libra-436514153-4365 24727_1_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bears-julianps-modelmapper-module-v avr-441307573-461240331_0_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bears-julianps-modelmapper-module-v avr-441307573-461240331_1_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bears-julianps-modelmapper-module-v avr-441307573-461240331_2_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bears-julianps-modelmapper-module-v avr-441307573-461240331_3_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bears-julianps-modelmapper-module-v avr-441307573-461240331_4_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bears-opentracing-contrib-java-p6sp y-390188323-431527545_0_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bears-opentracing-contrib-java-p6sp y-390188323-431527545_1_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bears-opentracing-contrib-java-p6sp y-390188323-431527545_2_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bears-opentracing-contrib-java-p6sp y-390188323-431527545_3_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bears-opentracing-contrib-java-p6sp y-390188323-431527545_4_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bears-SzFMV2018-Tavasz-AutomatedCar -351742666-351759763_0_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bears-SzFMV2018-Tavasz-AutomatedCar -351742666-351759763_1_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bears-SzFMV2018-Tavasz-AutomatedCar -351742666-351759763_2_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bears-SzFMV2018-Tavasz-AutomatedCar -351742666-351759763_3_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bears-SzFMV2018-Tavasz-AutomatedCar -351742666-351759763_4_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bears-traccar-traccar-255051210-255 052458_0_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bears-traccar-traccar-255051210-255 052458_1_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bears-traccar-traccar-255051210-255 052458_2_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bears-traccar-traccar-255051210-255 052458_3_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bears-traccar-traccar-255051210-255 052458_4_Auto</t>
+  </si>
+  <si>
+    <t>GenProg-Bears-SzFMV2018-Tavasz-Automated Car-351742666-351759763_0_Auto</t>
+  </si>
+  <si>
+    <t>GenProg-Bears-SzFMV2018-Tavasz-Automated Car-351742666-351759763_1_Auto</t>
+  </si>
+  <si>
+    <t>GenProg-Bears-SzFMV2018-Tavasz-Automated Car-351742666-351759763_2_Auto</t>
+  </si>
+  <si>
+    <t>GenProg-Bears-SzFMV2018-Tavasz-Automated Car-351742666-351759763_3_Auto</t>
+  </si>
+  <si>
+    <t>GenProg-Bears-SzFMV2018-Tavasz-Automated Car-351742666-351759763_4_Auto</t>
+  </si>
+  <si>
+    <t>Kali-Bears-albfernandez-GDS-PMD-Security -Rules-451155169-455669767_0_Auto</t>
+  </si>
+  <si>
+    <t>Kali-Bears-dungba88-libra-436514153-4365 24727_0_Auto</t>
+  </si>
+  <si>
+    <t>Kali-Bears-julianps-modelmapper-module-v avr-441307573-461240331_0_Auto</t>
+  </si>
+  <si>
+    <t>Kali-Bears-SzFMV2018-Tavasz-AutomatedCar -351742666-351759763_0_Auto</t>
+  </si>
+  <si>
+    <t>Kali-Bears-traccar-traccar-255051210-255 052458_0_Auto</t>
+  </si>
+  <si>
+    <t>Nopol-Bears-vkostyukov-la4j-414793864-43 6911083_0_Auto</t>
+  </si>
+  <si>
+    <t>RSRepair-Bears-SzFMV2018-Tavasz-Automate dCar-351742666-351759763_0_Auto</t>
+  </si>
+  <si>
+    <t>RSRepair-Bears-SzFMV2018-Tavasz-Automate dCar-351742666-351759763_1_Auto</t>
+  </si>
+  <si>
+    <t>RSRepair-Bears-SzFMV2018-Tavasz-Automate dCar-351742666-351759763_2_Auto</t>
+  </si>
+  <si>
+    <t>RSRepair-Bears-SzFMV2018-Tavasz-Automate dCar-351742666-351759763_3_Auto</t>
+  </si>
+  <si>
+    <t>RSRepair-Bears-SzFMV2018-Tavasz-Automate dCar-351742666-351759763_4_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bears-albfernandez-GDS-PMD-Security -Rules-451155169-455669767_0_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bears-albfernandez-GDS-PMD-Security -Rules-451155169-455669767_1_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bears-albfernandez-GDS-PMD-Security -Rules-451155169-455669767_2_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bears-albfernandez-GDS-PMD-Security -Rules-451155169-455669767_4_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bears-dungba88-libra-436514153-4365 24727_0_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bears-dungba88-libra-436514153-4365 24727_1_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bears-julianps-modelmapper-module-v avr-441307573-461240331_0_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bears-julianps-modelmapper-module-v avr-441307573-461240331_1_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bears-julianps-modelmapper-module-v avr-441307573-461240331_2_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bears-julianps-modelmapper-module-v avr-441307573-461240331_3_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bears-julianps-modelmapper-module-v avr-441307573-461240331_4_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bears-opentracing-contrib-java-p6sp y-390188323-431527545_0_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bears-opentracing-contrib-java-p6sp y-390188323-431527545_1_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bears-opentracing-contrib-java-p6sp y-390188323-431527545_2_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bears-opentracing-contrib-java-p6sp y-390188323-431527545_3_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bears-opentracing-contrib-java-p6sp y-390188323-431527545_4_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bears-SzFMV2018-Tavasz-AutomatedCar -351742666-351759763_0_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bears-SzFMV2018-Tavasz-AutomatedCar -351742666-351759763_1_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bears-SzFMV2018-Tavasz-AutomatedCar -351742666-351759763_2_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bears-SzFMV2018-Tavasz-AutomatedCar -351742666-351759763_3_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bears-SzFMV2018-Tavasz-AutomatedCar -351742666-351759763_4_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bears-traccar-traccar-255051210-255 052458_0_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bears-traccar-traccar-255051210-255 052458_1_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bears-traccar-traccar-255051210-255 052458_2_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bears-traccar-traccar-255051210-255 052458_3_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bears-traccar-traccar-255051210-255 052458_4_Manual</t>
+  </si>
+  <si>
+    <t>GenProg-Bears-SzFMV2018-Tavasz-Automated Car-351742666-351759763_0_Manual</t>
+  </si>
+  <si>
+    <t>GenProg-Bears-SzFMV2018-Tavasz-Automated Car-351742666-351759763_1_Manual</t>
+  </si>
+  <si>
+    <t>GenProg-Bears-SzFMV2018-Tavasz-Automated Car-351742666-351759763_2_Manual</t>
+  </si>
+  <si>
+    <t>GenProg-Bears-SzFMV2018-Tavasz-Automated Car-351742666-351759763_3_Manual</t>
+  </si>
+  <si>
+    <t>GenProg-Bears-SzFMV2018-Tavasz-Automated Car-351742666-351759763_4_Manual</t>
+  </si>
+  <si>
+    <t>Kali-Bears-albfernandez-GDS-PMD-Security -Rules-451155169-455669767_0_Manual</t>
+  </si>
+  <si>
+    <t>Kali-Bears-dungba88-libra-436514153-4365 24727_0_Manual</t>
+  </si>
+  <si>
+    <t>Kali-Bears-julianps-modelmapper-module-v avr-441307573-461240331_0_Manual</t>
+  </si>
+  <si>
+    <t>Kali-Bears-SzFMV2018-Tavasz-AutomatedCar -351742666-351759763_0_Manual</t>
+  </si>
+  <si>
+    <t>Kali-Bears-traccar-traccar-255051210-255 052458_0_Manual</t>
+  </si>
+  <si>
+    <t>Nopol-Bears-vkostyukov-la4j-414793864-43 6911083_0_Manual</t>
+  </si>
+  <si>
+    <t>RSRepair-Bears-SzFMV2018-Tavasz-Automate dCar-351742666-351759763_0_Manual</t>
+  </si>
+  <si>
+    <t>RSRepair-Bears-SzFMV2018-Tavasz-Automate dCar-351742666-351759763_1_Manual</t>
+  </si>
+  <si>
+    <t>RSRepair-Bears-SzFMV2018-Tavasz-Automate dCar-351742666-351759763_2_Manual</t>
+  </si>
+  <si>
+    <t>RSRepair-Bears-SzFMV2018-Tavasz-Automate dCar-351742666-351759763_3_Manual</t>
+  </si>
+  <si>
+    <t>RSRepair-Bears-SzFMV2018-Tavasz-Automate dCar-351742666-351759763_4_Manual</t>
   </si>
 </sst>
 </file>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="18" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>15</v>
@@ -2076,7 +2076,7 @@
         <v>22</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="L18"/>
       <c r="M18"/>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="19" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="B19" s="6">
         <v>3.69</v>
@@ -2117,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="13" t="str">
-        <f t="shared" ref="J19:J50" si="0">IF(NOT(ISERR(SEARCH("*_Buggy",$A19))), "Buggy", IF(NOT(ISERR(SEARCH("*_Fixed",$A19))), "Fixed", IF(NOT(ISERR(SEARCH("*_Repaired",$A19))), "Repaired", "")))</f>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A19))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A19))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A19))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="L19"/>
@@ -2132,7 +2132,7 @@
     </row>
     <row r="20" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="B20" s="6">
         <v>3.69</v>
@@ -2159,8 +2159,8 @@
         <v>0</v>
       </c>
       <c r="J20" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A20))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A20))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A20))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="L20"/>
       <c r="M20"/>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="21" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="B21" s="6">
         <v>3.62</v>
@@ -2201,8 +2201,8 @@
         <v>0</v>
       </c>
       <c r="J21" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A21))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A21))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A21))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="L21"/>
       <c r="M21"/>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="22" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B22" s="8">
         <v>3.69</v>
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A22))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A22))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A22))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="L22"/>
@@ -2258,7 +2258,7 @@
     </row>
     <row r="23" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B23" s="6">
         <v>3.69</v>
@@ -2285,8 +2285,8 @@
         <v>0</v>
       </c>
       <c r="J23" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A23))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A23))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A23))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="L23"/>
       <c r="M23"/>
@@ -2300,7 +2300,7 @@
     </row>
     <row r="24" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="B24" s="6">
         <v>3.54</v>
@@ -2327,8 +2327,8 @@
         <v>0</v>
       </c>
       <c r="J24" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A24))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A24))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A24))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="25" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="B25" s="8">
         <v>8.85</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A25))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A25))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A25))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="L25"/>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="26" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="B26" s="8">
         <v>8.9600000000000009</v>
@@ -2411,8 +2411,8 @@
         <v>0</v>
       </c>
       <c r="J26" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A26))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A26))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A26))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="L26"/>
       <c r="M26"/>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="27" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="B27" s="8">
         <v>8.83</v>
@@ -2453,8 +2453,8 @@
         <v>0</v>
       </c>
       <c r="J27" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A27))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A27))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A27))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="L27"/>
       <c r="M27"/>
@@ -2468,7 +2468,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B28" s="6">
         <v>3.69</v>
@@ -2495,13 +2495,13 @@
         <v>0</v>
       </c>
       <c r="J28" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A28))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A28))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A28))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B29" s="6">
         <v>3.69</v>
@@ -2528,13 +2528,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A29))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A29))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A29))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="B30" s="8">
         <v>3.46</v>
@@ -2561,13 +2561,13 @@
         <v>1.23</v>
       </c>
       <c r="J30" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A30))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A30))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A30))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B31" s="8">
         <v>2.5</v>
@@ -2594,13 +2594,13 @@
         <v>0.17</v>
       </c>
       <c r="J31" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A31))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A31))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A31))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="B32" s="6">
         <v>2.5</v>
@@ -2627,13 +2627,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A32))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A32))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A32))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="B33" s="6">
         <v>2</v>
@@ -2660,13 +2660,13 @@
         <v>0</v>
       </c>
       <c r="J33" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A33))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A33))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A33))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="B34" s="6">
         <v>2.5</v>
@@ -2693,13 +2693,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A34))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A34))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A34))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="B35" s="6">
         <v>2.5</v>
@@ -2726,13 +2726,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A35))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A35))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A35))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="B36" s="8">
         <v>2</v>
@@ -2759,13 +2759,13 @@
         <v>0</v>
       </c>
       <c r="J36" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A36))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A36))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A36))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B37" s="6">
         <v>1</v>
@@ -2792,13 +2792,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A37))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A37))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A37))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B38" s="6">
         <v>1</v>
@@ -2825,13 +2825,13 @@
         <v>0</v>
       </c>
       <c r="J38" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A38))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A38))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A38))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B39" s="6">
         <v>0</v>
@@ -2858,13 +2858,13 @@
         <v>0</v>
       </c>
       <c r="J39" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A39))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A39))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A39))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B40" s="8">
         <v>1</v>
@@ -2891,13 +2891,13 @@
         <v>0</v>
       </c>
       <c r="J40" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A40))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A40))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A40))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="B41" s="6">
         <v>1</v>
@@ -2924,13 +2924,13 @@
         <v>0</v>
       </c>
       <c r="J41" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A41))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A41))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A41))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B42" s="8">
         <v>0</v>
@@ -2957,13 +2957,13 @@
         <v>0</v>
       </c>
       <c r="J42" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A42))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A42))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A42))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B43" s="6">
         <v>1</v>
@@ -2990,13 +2990,13 @@
         <v>0</v>
       </c>
       <c r="J43" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A43))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A43))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A43))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B44" s="8">
         <v>1</v>
@@ -3023,13 +3023,13 @@
         <v>0</v>
       </c>
       <c r="J44" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A44))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A44))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A44))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="B45" s="8">
         <v>0</v>
@@ -3056,13 +3056,13 @@
         <v>0</v>
       </c>
       <c r="J45" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A45))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A45))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A45))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>146</v>
+        <v>62</v>
       </c>
       <c r="B46" s="8">
         <v>1</v>
@@ -3089,13 +3089,13 @@
         <v>0</v>
       </c>
       <c r="J46" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A46))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A46))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A46))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="B47" s="8">
         <v>1</v>
@@ -3122,13 +3122,13 @@
         <v>0</v>
       </c>
       <c r="J47" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A47))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A47))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A47))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="B48" s="8">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="J48" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A48))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A48))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A48))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B49" s="8">
         <v>1</v>
@@ -3188,13 +3188,13 @@
         <v>0</v>
       </c>
       <c r="J49" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A49))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A49))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A49))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="B50" s="6">
         <v>1</v>
@@ -3221,13 +3221,13 @@
         <v>0</v>
       </c>
       <c r="J50" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A50))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A50))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A50))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="B51" s="6">
         <v>0</v>
@@ -3254,13 +3254,13 @@
         <v>0</v>
       </c>
       <c r="J51" s="13" t="str">
-        <f t="shared" ref="J51:J82" si="1">IF(NOT(ISERR(SEARCH("*_Buggy",$A51))), "Buggy", IF(NOT(ISERR(SEARCH("*_Fixed",$A51))), "Fixed", IF(NOT(ISERR(SEARCH("*_Repaired",$A51))), "Repaired", "")))</f>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A51))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A51))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A51))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B52" s="8">
         <v>4.62</v>
@@ -3287,13 +3287,13 @@
         <v>0</v>
       </c>
       <c r="J52" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A52))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A52))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A52))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B53" s="8">
         <v>4.57</v>
@@ -3320,13 +3320,13 @@
         <v>0</v>
       </c>
       <c r="J53" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A53))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A53))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A53))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B54" s="6">
         <v>4.54</v>
@@ -3353,13 +3353,13 @@
         <v>0</v>
       </c>
       <c r="J54" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A54))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A54))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A54))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="B55" s="8">
         <v>4.62</v>
@@ -3386,13 +3386,13 @@
         <v>0</v>
       </c>
       <c r="J55" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A55))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A55))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A55))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="B56" s="8">
         <v>4.57</v>
@@ -3419,13 +3419,13 @@
         <v>0</v>
       </c>
       <c r="J56" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A56))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A56))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A56))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="B57" s="6">
         <v>4.54</v>
@@ -3452,13 +3452,13 @@
         <v>0</v>
       </c>
       <c r="J57" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A57))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A57))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A57))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B58" s="8">
         <v>4.62</v>
@@ -3485,13 +3485,13 @@
         <v>0</v>
       </c>
       <c r="J58" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A58))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A58))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A58))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="B59" s="8">
         <v>4.57</v>
@@ -3518,13 +3518,13 @@
         <v>0</v>
       </c>
       <c r="J59" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A59))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A59))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A59))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="B60" s="8">
         <v>4.3099999999999996</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="J60" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A60))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A60))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A60))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="B61" s="8">
         <v>4.62</v>
@@ -3584,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="J61" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A61))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A61))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A61))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B62" s="6">
         <v>4.57</v>
@@ -3617,13 +3617,13 @@
         <v>0</v>
       </c>
       <c r="J62" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A62))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A62))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A62))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="B63" s="8">
         <v>4.38</v>
@@ -3650,13 +3650,13 @@
         <v>0</v>
       </c>
       <c r="J63" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A63))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A63))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A63))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="B64" s="8">
         <v>4.62</v>
@@ -3683,13 +3683,13 @@
         <v>0</v>
       </c>
       <c r="J64" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A64))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A64))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A64))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="B65" s="6">
         <v>4.57</v>
@@ -3716,13 +3716,13 @@
         <v>0.79</v>
       </c>
       <c r="J65" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A65))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A65))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A65))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="B66" s="8">
         <v>4.38</v>
@@ -3749,13 +3749,13 @@
         <v>0</v>
       </c>
       <c r="J66" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A66))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A66))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A66))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="B67" s="6">
         <v>5.71</v>
@@ -3782,13 +3782,13 @@
         <v>0</v>
       </c>
       <c r="J67" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A67))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A67))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A67))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B68" s="6">
         <v>5.71</v>
@@ -3815,13 +3815,13 @@
         <v>0</v>
       </c>
       <c r="J68" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A68))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A68))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A68))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B69" s="6">
         <v>5.86</v>
@@ -3848,13 +3848,13 @@
         <v>0</v>
       </c>
       <c r="J69" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A69))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A69))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A69))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="B70" s="8">
         <v>5.71</v>
@@ -3881,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="J70" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A70))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A70))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A70))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B71" s="6">
         <v>5.71</v>
@@ -3914,13 +3914,13 @@
         <v>0</v>
       </c>
       <c r="J71" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A71))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A71))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A71))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="B72" s="6">
         <v>5.71</v>
@@ -3947,13 +3947,13 @@
         <v>0</v>
       </c>
       <c r="J72" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A72))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A72))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A72))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="B73" s="6">
         <v>5.71</v>
@@ -3980,13 +3980,13 @@
         <v>0</v>
       </c>
       <c r="J73" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A73))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A73))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A73))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="B74" s="6">
         <v>5.71</v>
@@ -4013,13 +4013,13 @@
         <v>0</v>
       </c>
       <c r="J74" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A74))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A74))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A74))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="B75" s="6">
         <v>5.86</v>
@@ -4046,13 +4046,13 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="J75" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A75))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A75))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A75))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="B76" s="8">
         <v>5.71</v>
@@ -4079,13 +4079,13 @@
         <v>0</v>
       </c>
       <c r="J76" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A76))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A76))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A76))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="B77" s="8">
         <v>5.71</v>
@@ -4112,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="J77" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A77))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A77))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A77))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B78" s="6">
         <v>5.86</v>
@@ -4145,13 +4145,13 @@
         <v>0</v>
       </c>
       <c r="J78" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A78))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A78))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A78))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="B79" s="6">
         <v>5.71</v>
@@ -4178,13 +4178,13 @@
         <v>0</v>
       </c>
       <c r="J79" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A79))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A79))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A79))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="B80" s="6">
         <v>5.71</v>
@@ -4211,13 +4211,13 @@
         <v>0</v>
       </c>
       <c r="J80" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A80))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A80))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A80))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B81" s="8">
         <v>5.86</v>
@@ -4244,13 +4244,13 @@
         <v>0</v>
       </c>
       <c r="J81" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A81))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A81))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A81))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="B82" s="8">
         <v>13</v>
@@ -4277,13 +4277,13 @@
         <v>0</v>
       </c>
       <c r="J82" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A82))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A82))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A82))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="B83" s="6">
         <v>13</v>
@@ -4310,13 +4310,13 @@
         <v>0.75</v>
       </c>
       <c r="J83" s="13" t="str">
-        <f t="shared" ref="J83:J114" si="2">IF(NOT(ISERR(SEARCH("*_Buggy",$A83))), "Buggy", IF(NOT(ISERR(SEARCH("*_Fixed",$A83))), "Fixed", IF(NOT(ISERR(SEARCH("*_Repaired",$A83))), "Repaired", "")))</f>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A83))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A83))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A83))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B84" s="8">
         <v>12.12</v>
@@ -4343,13 +4343,13 @@
         <v>0</v>
       </c>
       <c r="J84" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A84))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A84))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A84))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="B85" s="6">
         <v>13</v>
@@ -4376,13 +4376,13 @@
         <v>0</v>
       </c>
       <c r="J85" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A85))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A85))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A85))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="B86" s="6">
         <v>13</v>
@@ -4409,13 +4409,13 @@
         <v>0</v>
       </c>
       <c r="J86" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A86))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A86))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A86))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="B87" s="8">
         <v>12.12</v>
@@ -4442,13 +4442,13 @@
         <v>0</v>
       </c>
       <c r="J87" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A87))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A87))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A87))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B88" s="8">
         <v>13</v>
@@ -4475,13 +4475,13 @@
         <v>0</v>
       </c>
       <c r="J88" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A88))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A88))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A88))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="B89" s="6">
         <v>13</v>
@@ -4508,13 +4508,13 @@
         <v>0</v>
       </c>
       <c r="J89" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A89))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A89))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A89))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B90" s="8">
         <v>12.12</v>
@@ -4541,13 +4541,13 @@
         <v>0</v>
       </c>
       <c r="J90" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A90))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A90))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A90))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="B91" s="6">
         <v>13</v>
@@ -4574,13 +4574,13 @@
         <v>0</v>
       </c>
       <c r="J91" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A91))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A91))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A91))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="B92" s="8">
         <v>13</v>
@@ -4607,13 +4607,13 @@
         <v>0</v>
       </c>
       <c r="J92" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A92))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A92))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A92))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="B93" s="8">
         <v>12.12</v>
@@ -4640,13 +4640,13 @@
         <v>0</v>
       </c>
       <c r="J93" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A93))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A93))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A93))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B94" s="6">
         <v>13</v>
@@ -4673,13 +4673,13 @@
         <v>0</v>
       </c>
       <c r="J94" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A94))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A94))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A94))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B95" s="8">
         <v>13</v>
@@ -4706,13 +4706,13 @@
         <v>0</v>
       </c>
       <c r="J95" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A95))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A95))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A95))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B96" s="8">
         <v>12.12</v>
@@ -4739,13 +4739,13 @@
         <v>0</v>
       </c>
       <c r="J96" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A96))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A96))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A96))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B97" s="8">
         <v>5.71</v>
@@ -4772,13 +4772,13 @@
         <v>0</v>
       </c>
       <c r="J97" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A97))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A97))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A97))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="B98" s="8">
         <v>5.71</v>
@@ -4805,13 +4805,13 @@
         <v>0</v>
       </c>
       <c r="J98" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A98))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A98))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A98))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="B99" s="8">
         <v>6.29</v>
@@ -4838,13 +4838,13 @@
         <v>0</v>
       </c>
       <c r="J99" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A99))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A99))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A99))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="B100" s="6">
         <v>5.71</v>
@@ -4871,13 +4871,13 @@
         <v>0</v>
       </c>
       <c r="J100" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A100))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A100))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A100))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="B101" s="6">
         <v>5.71</v>
@@ -4904,13 +4904,13 @@
         <v>0</v>
       </c>
       <c r="J101" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A101))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A101))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A101))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B102" s="6">
         <v>7.43</v>
@@ -4937,13 +4937,13 @@
         <v>0</v>
       </c>
       <c r="J102" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A102))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A102))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A102))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B103" s="8">
         <v>5.71</v>
@@ -4970,13 +4970,13 @@
         <v>0</v>
       </c>
       <c r="J103" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A103))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A103))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A103))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="B104" s="8">
         <v>5.71</v>
@@ -5003,13 +5003,13 @@
         <v>0</v>
       </c>
       <c r="J104" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A104))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A104))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A104))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="B105" s="6">
         <v>6</v>
@@ -5036,13 +5036,13 @@
         <v>0</v>
       </c>
       <c r="J105" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A105))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A105))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A105))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="B106" s="6">
         <v>5.71</v>
@@ -5069,13 +5069,13 @@
         <v>0</v>
       </c>
       <c r="J106" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A106))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A106))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A106))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="B107" s="6">
         <v>5.71</v>
@@ -5102,13 +5102,13 @@
         <v>0</v>
       </c>
       <c r="J107" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A107))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A107))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A107))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="B108" s="8">
         <v>5.86</v>
@@ -5135,13 +5135,13 @@
         <v>0</v>
       </c>
       <c r="J108" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A108))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A108))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A108))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B109" s="6">
         <v>5.71</v>
@@ -5168,13 +5168,13 @@
         <v>0</v>
       </c>
       <c r="J109" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A109))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A109))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A109))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="B110" s="6">
         <v>5.71</v>
@@ -5201,13 +5201,13 @@
         <v>0</v>
       </c>
       <c r="J110" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A110))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A110))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A110))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B111" s="8">
         <v>6.43</v>
@@ -5234,13 +5234,13 @@
         <v>0</v>
       </c>
       <c r="J111" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A111))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A111))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A111))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="B112" s="8">
         <v>8.85</v>
@@ -5267,13 +5267,13 @@
         <v>0</v>
       </c>
       <c r="J112" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A112))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A112))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A112))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="B113" s="8">
         <v>8.9600000000000009</v>
@@ -5300,13 +5300,13 @@
         <v>1.53</v>
       </c>
       <c r="J113" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A113))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A113))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A113))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B114" s="8">
         <v>8.85</v>
@@ -5333,13 +5333,13 @@
         <v>0</v>
       </c>
       <c r="J114" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A114))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A114))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A114))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B115" s="6">
         <v>4</v>
@@ -5366,13 +5366,13 @@
         <v>0.33</v>
       </c>
       <c r="J115" s="13" t="str">
-        <f t="shared" ref="J115:J144" si="3">IF(NOT(ISERR(SEARCH("*_Buggy",$A115))), "Buggy", IF(NOT(ISERR(SEARCH("*_Fixed",$A115))), "Fixed", IF(NOT(ISERR(SEARCH("*_Repaired",$A115))), "Repaired", "")))</f>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A115))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A115))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A115))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="B116" s="6">
         <v>5.33</v>
@@ -5399,13 +5399,13 @@
         <v>0</v>
       </c>
       <c r="J116" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A116))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A116))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A116))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B117" s="8">
         <v>4</v>
@@ -5432,13 +5432,13 @@
         <v>0</v>
       </c>
       <c r="J117" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A117))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A117))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A117))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="B118" s="8">
         <v>1</v>
@@ -5465,13 +5465,13 @@
         <v>0</v>
       </c>
       <c r="J118" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A118))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A118))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A118))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="B119" s="6">
         <v>1</v>
@@ -5498,13 +5498,13 @@
         <v>0</v>
       </c>
       <c r="J119" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A119))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A119))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A119))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="B120" s="8">
         <v>3</v>
@@ -5531,13 +5531,13 @@
         <v>0</v>
       </c>
       <c r="J120" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A120))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A120))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A120))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B121" s="6">
         <v>5.71</v>
@@ -5564,13 +5564,13 @@
         <v>0</v>
       </c>
       <c r="J121" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A121))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A121))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A121))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B122" s="8">
         <v>5.71</v>
@@ -5597,13 +5597,13 @@
         <v>0</v>
       </c>
       <c r="J122" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A122))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A122))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A122))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="B123" s="8">
         <v>6</v>
@@ -5630,13 +5630,13 @@
         <v>0</v>
       </c>
       <c r="J123" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A123))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A123))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A123))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="B124" s="6">
         <v>13</v>
@@ -5663,13 +5663,13 @@
         <v>0</v>
       </c>
       <c r="J124" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A124))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A124))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A124))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" s="7" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B125" s="8">
         <v>13</v>
@@ -5696,13 +5696,13 @@
         <v>0</v>
       </c>
       <c r="J125" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A125))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A125))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A125))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B126" s="6">
         <v>13</v>
@@ -5729,13 +5729,13 @@
         <v>0</v>
       </c>
       <c r="J126" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A126))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A126))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A126))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B127" s="8">
         <v>2.41</v>
@@ -5762,13 +5762,13 @@
         <v>0.94</v>
       </c>
       <c r="J127" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A127))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A127))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A127))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="B128" s="6">
         <v>2.41</v>
@@ -5795,13 +5795,13 @@
         <v>0</v>
       </c>
       <c r="J128" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A128))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A128))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A128))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="B129" s="6">
         <v>2.42</v>
@@ -5828,13 +5828,13 @@
         <v>0</v>
       </c>
       <c r="J129" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A129))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A129))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A129))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="B130" s="8">
         <v>5.71</v>
@@ -5861,13 +5861,13 @@
         <v>0</v>
       </c>
       <c r="J130" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A130))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A130))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A130))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="B131" s="8">
         <v>5.71</v>
@@ -5894,13 +5894,13 @@
         <v>0</v>
       </c>
       <c r="J131" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A131))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A131))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A131))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="B132" s="6">
         <v>5.43</v>
@@ -5927,13 +5927,13 @@
         <v>0</v>
       </c>
       <c r="J132" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A132))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A132))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A132))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B133" s="6">
         <v>5.71</v>
@@ -5960,13 +5960,13 @@
         <v>0</v>
       </c>
       <c r="J133" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A133))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A133))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A133))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="B134" s="6">
         <v>5.71</v>
@@ -5993,13 +5993,13 @@
         <v>0</v>
       </c>
       <c r="J134" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A134))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A134))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A134))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B135" s="8">
         <v>5.71</v>
@@ -6026,13 +6026,13 @@
         <v>0</v>
       </c>
       <c r="J135" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A135))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A135))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A135))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B136" s="6">
         <v>5.71</v>
@@ -6059,13 +6059,13 @@
         <v>0</v>
       </c>
       <c r="J136" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A136))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A136))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A136))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="B137" s="6">
         <v>5.71</v>
@@ -6092,13 +6092,13 @@
         <v>0</v>
       </c>
       <c r="J137" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A137))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A137))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A137))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B138" s="6">
         <v>5.86</v>
@@ -6125,13 +6125,13 @@
         <v>0</v>
       </c>
       <c r="J138" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A138))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A138))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A138))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B139" s="8">
         <v>5.71</v>
@@ -6158,13 +6158,13 @@
         <v>0</v>
       </c>
       <c r="J139" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A139))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A139))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A139))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="B140" s="8">
         <v>5.71</v>
@@ -6191,13 +6191,13 @@
         <v>0</v>
       </c>
       <c r="J140" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A140))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A140))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A140))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="B141" s="6">
         <v>5.86</v>
@@ -6224,13 +6224,13 @@
         <v>0</v>
       </c>
       <c r="J141" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A141))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A141))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A141))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="B142" s="8">
         <v>5.71</v>
@@ -6257,13 +6257,13 @@
         <v>0</v>
       </c>
       <c r="J142" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A142))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A142))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A142))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="B143" s="6">
         <v>5.71</v>
@@ -6290,13 +6290,13 @@
         <v>0</v>
       </c>
       <c r="J143" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A143))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A143))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A143))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" s="7" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="B144" s="8">
         <v>5.57</v>
@@ -6323,13 +6323,13 @@
         <v>0</v>
       </c>
       <c r="J144" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A144))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A144))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A144))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="145" spans="1:20" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="12" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="B145" s="12" t="s">
         <v>15</v>
@@ -6356,7 +6356,7 @@
         <v>22</v>
       </c>
       <c r="J145" s="12" t="s">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="L145"/>
       <c r="M145"/>
@@ -6370,228 +6370,228 @@
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A146" s="9" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="B146" s="14">
         <f>SUM(B19:B144)</f>
         <v>711.64000000000055</v>
       </c>
       <c r="C146" s="14">
-        <f t="shared" ref="C146:I146" si="4">SUM(C19:C144)</f>
+        <f t="shared" ref="C146:I146" si="0">SUM(C19:C144)</f>
         <v>185.15999999999977</v>
       </c>
       <c r="D146" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1521</v>
       </c>
       <c r="E146" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1408</v>
       </c>
       <c r="F146" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>133.34999999999977</v>
       </c>
       <c r="G146" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>142.78000000000003</v>
       </c>
       <c r="H146" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>13.12</v>
       </c>
       <c r="I146" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>6.3100000000000005</v>
       </c>
       <c r="J146" s="10"/>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A147" s="11" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="B147" s="15">
         <f>AVERAGE(B19:B144)</f>
         <v>5.647936507936512</v>
       </c>
       <c r="C147" s="15">
-        <f t="shared" ref="C147:I147" si="5">AVERAGE(C19:C144)</f>
+        <f t="shared" ref="C147:I147" si="1">AVERAGE(C19:C144)</f>
         <v>1.4695238095238077</v>
       </c>
       <c r="D147" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>12.071428571428571</v>
       </c>
       <c r="E147" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>11.174603174603174</v>
       </c>
       <c r="F147" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.0583333333333316</v>
       </c>
       <c r="G147" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.1331746031746035</v>
       </c>
       <c r="H147" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.10412698412698412</v>
       </c>
       <c r="I147" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>5.0079365079365085E-2</v>
       </c>
       <c r="J147" s="10"/>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A148" s="9" t="s">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="B148" s="14">
         <f>MIN(B19:B144)</f>
         <v>0</v>
       </c>
       <c r="C148" s="14">
-        <f t="shared" ref="C148:I148" si="6">MIN(C19:C144)</f>
+        <f t="shared" ref="C148:I148" si="2">MIN(C19:C144)</f>
         <v>0</v>
       </c>
       <c r="D148" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E148" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F148" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="G148" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H148" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I148" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J148" s="10"/>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A149" s="11" t="s">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="B149" s="15">
         <f>MAX(B19:B144)</f>
         <v>13</v>
       </c>
       <c r="C149" s="15">
-        <f t="shared" ref="C149:I149" si="7">MAX(C19:C144)</f>
+        <f t="shared" ref="C149:I149" si="3">MAX(C19:C144)</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="D149" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="E149" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="F149" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G149" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2.21</v>
       </c>
       <c r="H149" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>3.08</v>
       </c>
       <c r="I149" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1.53</v>
       </c>
       <c r="J149" s="10"/>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A150" s="9" t="s">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="B150" s="14">
         <f>_xlfn.STDEV.S(B19:B144)</f>
         <v>3.5369078738265771</v>
       </c>
       <c r="C150" s="14">
-        <f t="shared" ref="C150:I150" si="8">_xlfn.STDEV.S(C19:C144)</f>
+        <f t="shared" ref="C150:I150" si="4">_xlfn.STDEV.S(C19:C144)</f>
         <v>1.7958578371988625</v>
       </c>
       <c r="D150" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>9.5508563565188815</v>
       </c>
       <c r="E150" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>14.671921136690649</v>
       </c>
       <c r="F150" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.54090701603880809</v>
       </c>
       <c r="G150" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.65522594673123502</v>
       </c>
       <c r="H150" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.45208188610696598</v>
       </c>
       <c r="I150" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.22037602784965893</v>
       </c>
       <c r="J150" s="10"/>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A151" s="11" t="s">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="B151" s="15">
         <f>_xlfn.VAR.S(B19:B144)</f>
         <v>12.509717307936437</v>
       </c>
       <c r="C151" s="15">
-        <f t="shared" ref="C151:I151" si="9">_xlfn.VAR.S(C19:C144)</f>
+        <f t="shared" ref="C151:I151" si="5">_xlfn.VAR.S(C19:C144)</f>
         <v>3.2251053714285765</v>
       </c>
       <c r="D151" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>91.218857142857132</v>
       </c>
       <c r="E151" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>215.26526984126983</v>
       </c>
       <c r="F151" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0.29258040000000735</v>
       </c>
       <c r="G151" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0.42932104126984316</v>
       </c>
       <c r="H151" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0.20437803174603175</v>
       </c>
       <c r="I151" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>4.8565593650793645E-2</v>
       </c>
       <c r="J151" s="10"/>
